--- a/data/ap_rcv.xlsx
+++ b/data/ap_rcv.xlsx
@@ -14,24 +14,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>One Year Alt</t>
-  </si>
-  <si>
-    <t>Two Year Alt</t>
-  </si>
-  <si>
-    <t>Three Year Alt</t>
-  </si>
-  <si>
-    <t>Five Year Alt</t>
-  </si>
-  <si>
-    <t>Ten Year Alt</t>
+    <t>One Year Alt mean</t>
+  </si>
+  <si>
+    <t>One Year Alt std</t>
+  </si>
+  <si>
+    <t>Two Year Alt mean</t>
+  </si>
+  <si>
+    <t>Two Year Alt std</t>
+  </si>
+  <si>
+    <t>Three Year Alt mean</t>
+  </si>
+  <si>
+    <t>Three Year Alt std</t>
+  </si>
+  <si>
+    <t>Five Year Alt mean</t>
+  </si>
+  <si>
+    <t>Five Year Alt std</t>
+  </si>
+  <si>
+    <t>Ten Year Alt mean</t>
+  </si>
+  <si>
+    <t>Ten Year Alt std</t>
   </si>
   <si>
     <t>LR</t>
@@ -43,16 +58,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -413,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,189 +450,286 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>0.8338615721891637</v>
+        <v>0.8537243401759531</v>
       </c>
       <c r="D2">
-        <v>0.8224383474383472</v>
+        <v>0.02182000774888037</v>
       </c>
       <c r="E2">
-        <v>0.8099851742031134</v>
+        <v>0.8441947049089906</v>
       </c>
       <c r="F2">
-        <v>0.8</v>
+        <v>0.03101234304715023</v>
       </c>
       <c r="G2">
-        <v>0.8167256319540582</v>
+        <v>0.8297123164519029</v>
+      </c>
+      <c r="H2">
+        <v>0.02327315754081393</v>
+      </c>
+      <c r="I2">
+        <v>0.813390261627907</v>
+      </c>
+      <c r="J2">
+        <v>0.04873765251553298</v>
+      </c>
+      <c r="K2">
+        <v>0.8277777777777778</v>
+      </c>
+      <c r="L2">
+        <v>0.03055240666144628</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C3">
-        <v>0.8487211608727424</v>
+        <v>0.8355969836614998</v>
       </c>
       <c r="D3">
-        <v>0.83999908999909</v>
+        <v>0.02261034016097998</v>
       </c>
       <c r="E3">
-        <v>0.8332048430936496</v>
+        <v>0.8191165655451371</v>
       </c>
       <c r="F3">
-        <v>0.8302325581395349</v>
+        <v>0.03166668956409304</v>
       </c>
       <c r="G3">
-        <v>0.8258216684612624</v>
+        <v>0.8070971930876036</v>
+      </c>
+      <c r="H3">
+        <v>0.0229572952456023</v>
+      </c>
+      <c r="I3">
+        <v>0.7962996608527131</v>
+      </c>
+      <c r="J3">
+        <v>0.05652256670606583</v>
+      </c>
+      <c r="K3">
+        <v>0.8095444238301381</v>
+      </c>
+      <c r="L3">
+        <v>0.04296341918059716</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.8758743083829209</v>
+        <v>0.8867239212400504</v>
       </c>
       <c r="D4">
-        <v>0.8865774865774865</v>
+        <v>0.02168690359069748</v>
       </c>
       <c r="E4">
-        <v>0.8867086730911786</v>
+        <v>0.8929306857878286</v>
       </c>
       <c r="F4">
-        <v>0.8798449612403101</v>
+        <v>0.01799549314157119</v>
       </c>
       <c r="G4">
-        <v>0.8805209454955648</v>
+        <v>0.8996703626011389</v>
+      </c>
+      <c r="H4">
+        <v>0.02177180518798494</v>
+      </c>
+      <c r="I4">
+        <v>0.8927507267441861</v>
+      </c>
+      <c r="J4">
+        <v>0.03062021073755635</v>
+      </c>
+      <c r="K4">
+        <v>0.8874871160585446</v>
+      </c>
+      <c r="L4">
+        <v>0.03597734512467365</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>0.7608476876500678</v>
+        <v>0.7773732718894009</v>
       </c>
       <c r="D5">
-        <v>0.7467785967785967</v>
+        <v>0.03558298844132256</v>
       </c>
       <c r="E5">
-        <v>0.7396194712132445</v>
+        <v>0.7682800147085861</v>
       </c>
       <c r="F5">
-        <v>0.7302325581395348</v>
+        <v>0.02761666988297672</v>
       </c>
       <c r="G5">
-        <v>0.704404450597344</v>
+        <v>0.7611227649585456</v>
+      </c>
+      <c r="H5">
+        <v>0.02681576108957025</v>
+      </c>
+      <c r="I5">
+        <v>0.7566133720930233</v>
+      </c>
+      <c r="J5">
+        <v>0.03418277887336316</v>
+      </c>
+      <c r="K5">
+        <v>0.7284786641929499</v>
+      </c>
+      <c r="L5">
+        <v>0.04971540871817492</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6">
-        <v>0.8868587535233322</v>
+        <v>0.880242982823628</v>
       </c>
       <c r="D6">
-        <v>0.8838838838838839</v>
+        <v>0.02250277223500797</v>
       </c>
       <c r="E6">
-        <v>0.866975537435137</v>
+        <v>0.8665241772384631</v>
       </c>
       <c r="F6">
-        <v>0.8705426356589147</v>
+        <v>0.0335667758566429</v>
       </c>
       <c r="G6">
-        <v>0.8703789160641952</v>
+        <v>0.8784786734591948</v>
+      </c>
+      <c r="H6">
+        <v>0.02383846342041215</v>
+      </c>
+      <c r="I6">
+        <v>0.8756116763565892</v>
+      </c>
+      <c r="J6">
+        <v>0.04326656056172588</v>
+      </c>
+      <c r="K6">
+        <v>0.8794681508967223</v>
+      </c>
+      <c r="L6">
+        <v>0.02307238220686191</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>0.8907464244701953</v>
+        <v>0.8608378718056138</v>
       </c>
       <c r="D7">
-        <v>0.8926722176722176</v>
+        <v>0.02387442014759547</v>
       </c>
       <c r="E7">
-        <v>0.8789399555226092</v>
+        <v>0.8577128148556719</v>
       </c>
       <c r="F7">
-        <v>0.896124031007752</v>
+        <v>0.03117809915692107</v>
       </c>
       <c r="G7">
-        <v>0.8987232733425626</v>
+        <v>0.8587054240335631</v>
+      </c>
+      <c r="H7">
+        <v>0.02903352372579127</v>
+      </c>
+      <c r="I7">
+        <v>0.8414304748062016</v>
+      </c>
+      <c r="J7">
+        <v>0.04559338484830374</v>
+      </c>
+      <c r="K7">
+        <v>0.8449391877963306</v>
+      </c>
+      <c r="L7">
+        <v>0.02214432309171755</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>0.6684079757803529</v>
+        <v>0.8737704231252618</v>
       </c>
       <c r="D8">
-        <v>0.6888138138138138</v>
+        <v>0.02020405379965951</v>
       </c>
       <c r="E8">
-        <v>0.7044032616753151</v>
+        <v>0.861803640375069</v>
       </c>
       <c r="F8">
-        <v>0.6341085271317829</v>
+        <v>0.03004434341382434</v>
       </c>
       <c r="G8">
-        <v>0.6943085679126287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>0.8661530431151476</v>
-      </c>
-      <c r="D9">
-        <v>0.869034944034944</v>
-      </c>
-      <c r="E9">
-        <v>0.8585396590066716</v>
-      </c>
-      <c r="F9">
-        <v>0.8736434108527131</v>
-      </c>
-      <c r="G9">
-        <v>0.8653079013485104</v>
+        <v>0.8678953151533314</v>
+      </c>
+      <c r="H8">
+        <v>0.02906690953958588</v>
+      </c>
+      <c r="I8">
+        <v>0.8779796511627908</v>
+      </c>
+      <c r="J8">
+        <v>0.03535374557925629</v>
+      </c>
+      <c r="K8">
+        <v>0.8662440733869305</v>
+      </c>
+      <c r="L8">
+        <v>0.04310377143565268</v>
       </c>
     </row>
   </sheetData>
